--- a/excels/Ability.xlsx
+++ b/excels/Ability.xlsx
@@ -402,19 +402,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,9 +428,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,42 +443,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,44 +459,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,10 +480,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,12 +550,27 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -588,31 +581,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,151 +725,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,6 +786,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,54 +848,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -894,153 +872,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,23 +1041,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1417,13 +1410,13 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="44.875" customWidth="1"/>
     <col min="3" max="3" width="32.375" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="38.625" customWidth="1"/>

--- a/excels/Ability.xlsx
+++ b/excels/Ability.xlsx
@@ -265,7 +265,7 @@
     <t>TrickSkill_encijietuo</t>
   </si>
   <si>
-    <t>恩赐解脱：惩处一名敌方英雄</t>
+    <t>恩赐解脱：惩处一名敌方英雄 本路所有</t>
   </si>
   <si>
     <t>phantom_assassin_coup_de_grace</t>
@@ -274,7 +274,7 @@
     <t>TrickSkill_kuangzhanshizhihou</t>
   </si>
   <si>
-    <t>狂战士之吼：斧王与敌方近邻战斗</t>
+    <t xml:space="preserve">狂战士之吼：斧王与敌方近邻战斗 </t>
   </si>
   <si>
     <t>axe_berserkers_call</t>
@@ -355,7 +355,7 @@
     <t>TrickSkill_huimie</t>
   </si>
   <si>
-    <t>毁灭：本回合眩晕所有敌方单位，并造成2/3/4点物理伤害</t>
+    <t>毁灭：本回合眩晕本路所有敌方单位，并造成2/3/4点物理伤害</t>
   </si>
   <si>
     <t>tidehunter_ravage</t>
@@ -402,10 +402,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -428,31 +428,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,24 +458,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,30 +534,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,9 +548,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,22 +558,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,19 +581,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,163 +743,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,30 +799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -834,15 +810,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,6 +840,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -887,6 +872,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -895,10 +895,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,137 +907,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,6 +1045,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1411,7 +1412,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1486,10 +1487,10 @@
       <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G3">
@@ -1509,10 +1510,10 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>104</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G4">
@@ -1532,10 +1533,10 @@
       <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>35</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G5">
@@ -1555,10 +1556,10 @@
       <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>44</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G6">
@@ -1578,10 +1579,10 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G7">
@@ -1601,10 +1602,10 @@
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>112</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G8">
@@ -1624,10 +1625,10 @@
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>57</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G9">
@@ -1647,10 +1648,10 @@
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="3">
+        <v>25</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G10">
@@ -1670,10 +1671,10 @@
       <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="3">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G11">
@@ -1693,10 +1694,10 @@
       <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="D12" s="3">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G12">
@@ -1716,10 +1717,10 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="D13" s="3">
+        <v>53</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G13">
@@ -1739,10 +1740,10 @@
       <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="3">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G14">
@@ -1762,10 +1763,10 @@
       <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="D15" s="3">
+        <v>109</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G15">
@@ -1785,10 +1786,10 @@
       <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="D16" s="3">
+        <v>29</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G16">
@@ -1808,10 +1809,10 @@
       <c r="C17" s="2">
         <v>3</v>
       </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="3">
+        <v>90</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G17">
@@ -1831,10 +1832,10 @@
       <c r="C18" s="2">
         <v>4</v>
       </c>
-      <c r="D18">
-        <v>16</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="3">
+        <v>45</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G18">
@@ -1854,10 +1855,10 @@
       <c r="C19" s="2">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="D19" s="3">
+        <v>71</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G19">
@@ -1877,10 +1878,10 @@
       <c r="C20" s="2">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="D20" s="3">
+        <v>51</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>67</v>
       </c>
       <c r="G20">
@@ -1897,10 +1898,10 @@
       <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="D21" s="3">
+        <v>38</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G21">
@@ -1917,10 +1918,10 @@
       <c r="C22" s="2">
         <v>3</v>
       </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>34</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G22">
@@ -1931,16 +1932,16 @@
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="7">
         <v>2</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="D23" s="3">
+        <v>22</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G23">
@@ -1954,16 +1955,16 @@
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="7">
         <v>2</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="D24" s="3">
+        <v>104</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G24">
@@ -1977,16 +1978,16 @@
       <c r="A25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="7">
         <v>2</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
       </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="D25" s="3">
+        <v>35</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G25">
@@ -2000,16 +2001,16 @@
       <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="7">
         <v>2</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="D26" s="3">
+        <v>44</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>82</v>
       </c>
       <c r="G26">
@@ -2023,16 +2024,16 @@
       <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="7">
         <v>2</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
       </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>85</v>
       </c>
       <c r="G27">
@@ -2046,16 +2047,16 @@
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="7">
         <v>2</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
       </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="D28" s="3">
+        <v>112</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="G28">
@@ -2069,16 +2070,16 @@
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="7">
         <v>2</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
       </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="D29" s="3">
+        <v>57</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>91</v>
       </c>
       <c r="G29">
@@ -2092,16 +2093,16 @@
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="7">
         <v>2</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
       </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="D30" s="3">
+        <v>25</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>94</v>
       </c>
       <c r="G30">
@@ -2115,16 +2116,16 @@
       <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="7">
         <v>2</v>
       </c>
       <c r="C31" s="2">
         <v>6</v>
       </c>
-      <c r="D31">
-        <v>9</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="D31" s="3">
+        <v>33</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>97</v>
       </c>
       <c r="G31">
@@ -2138,16 +2139,16 @@
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="7">
         <v>2</v>
       </c>
       <c r="C32" s="2">
         <v>7</v>
       </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="D32" s="3">
+        <v>21</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G32">
@@ -2161,16 +2162,16 @@
       <c r="A33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="7">
         <v>2</v>
       </c>
       <c r="C33" s="2">
         <v>5</v>
       </c>
-      <c r="D33">
-        <v>11</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="D33" s="3">
+        <v>53</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G33">
@@ -2184,16 +2185,16 @@
       <c r="A34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="7">
         <v>2</v>
       </c>
       <c r="C34" s="2">
         <v>6</v>
       </c>
-      <c r="D34">
-        <v>12</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="D34" s="3">
+        <v>23</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>106</v>
       </c>
       <c r="G34">
@@ -2207,16 +2208,16 @@
       <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="7">
         <v>2</v>
       </c>
       <c r="C35" s="2">
         <v>4</v>
       </c>
-      <c r="D35">
-        <v>13</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="D35" s="3">
+        <v>109</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>109</v>
       </c>
       <c r="G35">
@@ -2230,16 +2231,16 @@
       <c r="A36" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="7">
         <v>2</v>
       </c>
       <c r="C36" s="2">
         <v>6</v>
       </c>
-      <c r="D36">
-        <v>14</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="D36" s="3">
+        <v>29</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>112</v>
       </c>
       <c r="G36">
@@ -2253,16 +2254,16 @@
       <c r="A37" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="7">
         <v>2</v>
       </c>
       <c r="C37" s="2">
         <v>6</v>
       </c>
-      <c r="D37">
-        <v>15</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="D37" s="3">
+        <v>90</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G37">
@@ -2276,16 +2277,16 @@
       <c r="A38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="7">
         <v>2</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
       </c>
-      <c r="D38">
-        <v>16</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="D38" s="3">
+        <v>45</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>117</v>
       </c>
       <c r="G38">
@@ -2296,16 +2297,16 @@
       <c r="A39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="7">
         <v>2</v>
       </c>
       <c r="C39" s="2">
         <v>4</v>
       </c>
-      <c r="D39">
-        <v>17</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="D39" s="3">
+        <v>71</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>119</v>
       </c>
       <c r="G39">
@@ -2316,16 +2317,16 @@
       <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="7">
         <v>2</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
       </c>
-      <c r="D40">
-        <v>18</v>
-      </c>
-      <c r="F40" s="7" t="s">
+      <c r="D40" s="3">
+        <v>51</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>121</v>
       </c>
       <c r="G40">
@@ -2336,16 +2337,16 @@
       <c r="A41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="7">
         <v>2</v>
       </c>
       <c r="C41" s="2">
         <v>5</v>
       </c>
-      <c r="D41">
-        <v>19</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="D41" s="3">
+        <v>38</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>123</v>
       </c>
       <c r="G41">
@@ -2356,16 +2357,16 @@
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="7">
         <v>2</v>
       </c>
       <c r="C42" s="2">
         <v>6</v>
       </c>
-      <c r="D42">
-        <v>20</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="D42" s="3">
+        <v>34</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>125</v>
       </c>
       <c r="G42">

--- a/excels/Ability.xlsx
+++ b/excels/Ability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
   <si>
     <t>类名</t>
   </si>
@@ -132,7 +132,7 @@
     <t>龙破斩：选择一个敌方单位，对其和其近邻造成3/5/7点伤害</t>
   </si>
   <si>
-    <t>luna_lucent_beam</t>
+    <t>lina_dragon_slave</t>
   </si>
   <si>
     <t>SmallSkill_emozhuanhua</t>
@@ -196,175 +196,178 @@
 </t>
   </si>
   <si>
+    <t>keeper_of_the_light_blinding_light</t>
+  </si>
+  <si>
+    <t>SmallSkill_shengmingjiqu</t>
+  </si>
+  <si>
+    <t>生命汲取：选择一个单位造成3/5/8点伤害，并恢复帕格纳等量生命值</t>
+  </si>
+  <si>
+    <t>pugna_decrepify</t>
+  </si>
+  <si>
+    <t>SmallSkill_julizhongji</t>
+  </si>
+  <si>
+    <t>巨力重击：眩晕对格敌方单位，并使其移动到一个敌方空格内</t>
+  </si>
+  <si>
+    <t>spirit_breaker_greater_bash</t>
+  </si>
+  <si>
+    <t>SmallSkill_zhaominghuojian</t>
+  </si>
+  <si>
+    <t>照明火箭：选择一个敌方单位对其近邻造成3/5/7点物理伤害（跨线技能）</t>
+  </si>
+  <si>
+    <t>SmallSkill_yexingzhaohuanyezhu</t>
+  </si>
+  <si>
+    <t>野性呼唤豪猪：召唤一只4攻7血的豪猪</t>
+  </si>
+  <si>
+    <t>SmallSkill_redaofeidan</t>
+  </si>
+  <si>
+    <t>热导飞弹：对敌方单位随机释放3枚导弹,每枚导弹造成3/5/7点伤害</t>
+  </si>
+  <si>
+    <t>TrickSkill_leishenzhinu</t>
+  </si>
+  <si>
+    <t>雷神之怒：对所有兵线上的每名敌方英雄造成3/5/7点纯粹伤害</t>
+  </si>
+  <si>
+    <t>zuus_thundergods_wrath</t>
+  </si>
+  <si>
+    <t>TrickSkill_qianggong</t>
+  </si>
+  <si>
+    <t>强攻：解除一个友方单位的控制效果，并获得4攻击力回复4生命值</t>
+  </si>
+  <si>
+    <t>legion_commander_press_the_attack</t>
+  </si>
+  <si>
+    <t>TrickSkill_ansha</t>
+  </si>
+  <si>
+    <t>暗杀：对一个敌方单位造成10点纯粹伤害并眩晕（跨线技能）</t>
+  </si>
+  <si>
+    <t>sniper_assassinate</t>
+  </si>
+  <si>
+    <t>TrickSkill_encijietuo</t>
+  </si>
+  <si>
+    <t>恩赐解脱：惩处一名敌方英雄 本路所有</t>
+  </si>
+  <si>
+    <t>phantom_assassin_coup_de_grace</t>
+  </si>
+  <si>
+    <t>TrickSkill_kuangzhanshizhihou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狂战士之吼：斧王与敌方近邻战斗 </t>
+  </si>
+  <si>
+    <t>axe_berserkers_call</t>
+  </si>
+  <si>
+    <t>TrickSkill_handongzuzhou</t>
+  </si>
+  <si>
+    <t>寒冬诅咒：选择一个敌方英雄，使其与另一个敌方英雄决斗</t>
+  </si>
+  <si>
+    <t>winter_wyvern_winters_curse</t>
+  </si>
+  <si>
+    <t>TrickSkill_shouhutianshi</t>
+  </si>
+  <si>
+    <t>守护天使：使本回合所有的友方单位获得伤害免疫</t>
+  </si>
+  <si>
+    <t>omniknight_guardian_angel</t>
+  </si>
+  <si>
+    <t>TrickSkill_mieshenzhan</t>
+  </si>
+  <si>
+    <t>神灭斩：对一个敌方单位造11/14/17点魔法伤害</t>
+  </si>
+  <si>
+    <t>lina_laguna_blade</t>
+  </si>
+  <si>
+    <t>TrickSkill_heidong</t>
+  </si>
+  <si>
+    <t>黑洞：对正面3格单位造成眩晕，并造成5/7/10点魔法伤害</t>
+  </si>
+  <si>
+    <t>enigma_black_hole</t>
+  </si>
+  <si>
+    <t>TrickSkill_jizhonghuoli</t>
+  </si>
+  <si>
+    <t>集中火力：选择一个敌方单位或者敌方防御塔造成3次5/6/8点纯粹伤害</t>
+  </si>
+  <si>
+    <t>windrunner_focusfire</t>
+  </si>
+  <si>
+    <t>TrickSkill_zirandezhaohuan</t>
+  </si>
+  <si>
+    <t>自然的召唤：召唤3攻6血的小树人直到上限</t>
+  </si>
+  <si>
+    <t>furion_force_of_nature</t>
+  </si>
+  <si>
+    <t>TrickSkill_youlingchuan</t>
+  </si>
+  <si>
+    <t>幽灵船：对一个敌方英雄施放一艘船使其眩晕并造成6点伤害，路径上的所有友方英雄获得2点抗性（跨线技能）</t>
+  </si>
+  <si>
+    <t>kunkka_ghostship</t>
+  </si>
+  <si>
+    <t>TrickSkill_hunduan</t>
+  </si>
+  <si>
+    <t>魂断：选择一个单位，使恐怖利刃和其交换当前生命值</t>
+  </si>
+  <si>
+    <t>terrorblade_sunder</t>
+  </si>
+  <si>
+    <t>TrickSkill_huimie</t>
+  </si>
+  <si>
+    <t>毁灭：本回合眩晕本路所有敌方单位，并造成2/3/4点物理伤害</t>
+  </si>
+  <si>
+    <t>tidehunter_ravage</t>
+  </si>
+  <si>
+    <t>TrickSkill_chongjibo</t>
+  </si>
+  <si>
+    <t>冲击波：对本路全体敌方单位造成5/7/10点魔法伤害</t>
+  </si>
+  <si>
     <t>keeper_of_the_light_illuminate</t>
-  </si>
-  <si>
-    <t>SmallSkill_shengmingjiqu</t>
-  </si>
-  <si>
-    <t>生命汲取：选择一个单位造成3/5/8点伤害，并恢复帕格纳等量生命值</t>
-  </si>
-  <si>
-    <t>pugna_decrepify</t>
-  </si>
-  <si>
-    <t>SmallSkill_julizhongji</t>
-  </si>
-  <si>
-    <t>巨力重击：眩晕对格敌方单位，并使其移动到一个敌方空格内</t>
-  </si>
-  <si>
-    <t>spirit_breaker_greater_bash</t>
-  </si>
-  <si>
-    <t>SmallSkill_zhaominghuojian</t>
-  </si>
-  <si>
-    <t>照明火箭：选择一个敌方单位对其近邻造成3/5/7点物理伤害（跨线技能）</t>
-  </si>
-  <si>
-    <t>SmallSkill_yexingzhaohuanyezhu</t>
-  </si>
-  <si>
-    <t>野性呼唤豪猪：召唤一只4攻7血的豪猪</t>
-  </si>
-  <si>
-    <t>SmallSkill_redaofeidan</t>
-  </si>
-  <si>
-    <t>热导飞弹：对敌方单位随机释放3枚导弹,每枚导弹造成3/5/7点伤害</t>
-  </si>
-  <si>
-    <t>TrickSkill_leishenzhinu</t>
-  </si>
-  <si>
-    <t>雷神之怒：对所有兵线上的每名敌方英雄造成3/5/7点纯粹伤害</t>
-  </si>
-  <si>
-    <t>sandking_epicenter</t>
-  </si>
-  <si>
-    <t>TrickSkill_qianggong</t>
-  </si>
-  <si>
-    <t>强攻：解除一个友方单位的控制效果，并获得4攻击力回复4生命值</t>
-  </si>
-  <si>
-    <t>legion_commander_press_the_attack</t>
-  </si>
-  <si>
-    <t>TrickSkill_ansha</t>
-  </si>
-  <si>
-    <t>暗杀：对一个敌方单位造成10点纯粹伤害并眩晕（跨线技能）</t>
-  </si>
-  <si>
-    <t>sniper_assassinate</t>
-  </si>
-  <si>
-    <t>TrickSkill_encijietuo</t>
-  </si>
-  <si>
-    <t>恩赐解脱：惩处一名敌方英雄 本路所有</t>
-  </si>
-  <si>
-    <t>phantom_assassin_coup_de_grace</t>
-  </si>
-  <si>
-    <t>TrickSkill_kuangzhanshizhihou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">狂战士之吼：斧王与敌方近邻战斗 </t>
-  </si>
-  <si>
-    <t>axe_berserkers_call</t>
-  </si>
-  <si>
-    <t>TrickSkill_handongzuzhou</t>
-  </si>
-  <si>
-    <t>寒冬诅咒：选择一个敌方英雄，使其与另一个敌方英雄决斗</t>
-  </si>
-  <si>
-    <t>winter_wyvern_winters_curse</t>
-  </si>
-  <si>
-    <t>TrickSkill_shouhutianshi</t>
-  </si>
-  <si>
-    <t>守护天使：使本回合所有的友方单位获得伤害免疫</t>
-  </si>
-  <si>
-    <t>omniknight_guardian_angel</t>
-  </si>
-  <si>
-    <t>TrickSkill_mieshenzhan</t>
-  </si>
-  <si>
-    <t>神灭斩：对一个敌方单位造11/14/17点魔法伤害</t>
-  </si>
-  <si>
-    <t>luna_eclipse</t>
-  </si>
-  <si>
-    <t>TrickSkill_heidong</t>
-  </si>
-  <si>
-    <t>黑洞：对正面3格单位造成眩晕，并造成5/7/10点魔法伤害</t>
-  </si>
-  <si>
-    <t>enigma_black_hole</t>
-  </si>
-  <si>
-    <t>TrickSkill_jizhonghuoli</t>
-  </si>
-  <si>
-    <t>集中火力：选择一个敌方单位或者敌方防御塔造成3次5/6/8点纯粹伤害</t>
-  </si>
-  <si>
-    <t>windrunner_focusfire</t>
-  </si>
-  <si>
-    <t>TrickSkill_zirandezhaohuan</t>
-  </si>
-  <si>
-    <t>自然的召唤：召唤3攻6血的小树人直到上限</t>
-  </si>
-  <si>
-    <t>furion_force_of_nature</t>
-  </si>
-  <si>
-    <t>TrickSkill_youlingchuan</t>
-  </si>
-  <si>
-    <t>幽灵船：对一个敌方英雄施放一艘船使其眩晕并造成6点伤害，路径上的所有友方英雄获得2点抗性（跨线技能）</t>
-  </si>
-  <si>
-    <t>kunkka_ghostship</t>
-  </si>
-  <si>
-    <t>TrickSkill_hunduan</t>
-  </si>
-  <si>
-    <t>魂断：选择一个单位，使恐怖利刃和其交换当前生命值</t>
-  </si>
-  <si>
-    <t>terrorblade_sunder</t>
-  </si>
-  <si>
-    <t>TrickSkill_huimie</t>
-  </si>
-  <si>
-    <t>毁灭：本回合眩晕本路所有敌方单位，并造成2/3/4点物理伤害</t>
-  </si>
-  <si>
-    <t>tidehunter_ravage</t>
-  </si>
-  <si>
-    <t>TrickSkill_chongjibo</t>
-  </si>
-  <si>
-    <t>冲击波：对本路全体敌方单位造成5/7/10点魔法伤害</t>
   </si>
   <si>
     <t>TrickSkill_youminghongbao</t>
@@ -428,24 +431,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,21 +453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,49 +467,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,9 +498,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,8 +552,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,19 +584,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,25 +734,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,133 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,36 +802,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -849,11 +822,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,21 +890,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -895,10 +898,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,133 +910,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1411,8 +1414,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1422,7 +1425,7 @@
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="38.625" customWidth="1"/>
     <col min="7" max="7" width="39.25" customWidth="1"/>
-    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1657,7 +1660,7 @@
       <c r="G10">
         <v>8</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1947,7 +1950,7 @@
       <c r="G23">
         <v>21</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2108,7 +2111,7 @@
       <c r="G30">
         <v>28</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2270,12 +2273,12 @@
         <v>35</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="34.5" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B38" s="7">
         <v>2</v>
@@ -2287,7 +2290,7 @@
         <v>45</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G38">
         <v>36</v>
@@ -2295,7 +2298,7 @@
     </row>
     <row r="39" ht="33" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B39" s="7">
         <v>2</v>
@@ -2307,7 +2310,7 @@
         <v>71</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G39">
         <v>37</v>
@@ -2315,7 +2318,7 @@
     </row>
     <row r="40" ht="33" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B40" s="7">
         <v>2</v>
@@ -2327,7 +2330,7 @@
         <v>51</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G40">
         <v>38</v>
@@ -2335,7 +2338,7 @@
     </row>
     <row r="41" ht="34.5" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B41" s="7">
         <v>2</v>
@@ -2347,7 +2350,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G41">
         <v>39</v>
@@ -2355,7 +2358,7 @@
     </row>
     <row r="42" ht="34.5" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B42" s="7">
         <v>2</v>
@@ -2367,7 +2370,7 @@
         <v>34</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G42">
         <v>40</v>

--- a/excels/Ability.xlsx
+++ b/excels/Ability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
   <si>
     <t>类名</t>
   </si>
@@ -66,7 +66,7 @@
     <t>SmallSkill_leiji</t>
   </si>
   <si>
-    <t>雷击：眩晕一名敌方英雄，并造成3/5/8点魔法伤害</t>
+    <t>3水晶 宙斯小 雷击：眩晕一名敌方英雄，并造成3/5/8点魔法伤害</t>
   </si>
   <si>
     <t>zuus_lightning_bolt</t>
@@ -75,7 +75,7 @@
     <t>SmallSkill_juedou</t>
   </si>
   <si>
-    <t>决斗:选择一个敌方英雄与其发生战斗</t>
+    <t>2水晶 军团小 决斗:选择一个敌方英雄与其发生战斗</t>
   </si>
   <si>
     <t>legion_commander_duel</t>
@@ -84,7 +84,7 @@
     <t>SmallSkill_baotou</t>
   </si>
   <si>
-    <t>爆头：选择火枪的一个敌方近邻造成5/7/10点物理伤害</t>
+    <t>3水晶 火枪小 爆头：选择火枪的一个敌方近邻造成5/7/10点物理伤害</t>
   </si>
   <si>
     <t>sniper_headshot</t>
@@ -93,7 +93,7 @@
     <t>SmallSkill_huanyingtuxi</t>
   </si>
   <si>
-    <t>幻影突袭：选择一个敌方单位造成4/6/9点物理伤害，并移动到一个友方空格</t>
+    <t>4水晶 幻刺小 幻影突袭：选择一个敌方单位造成4/6/9点物理伤害，并移动到一个友方空格</t>
   </si>
   <si>
     <t>phantom_assassin_phantom_strike</t>
@@ -102,7 +102,7 @@
     <t>SmallSkill_taotaizhiren</t>
   </si>
   <si>
-    <t>淘汰之刃：惩处一个负伤的敌方近邻</t>
+    <t>3水晶 斧王小 淘汰之刃：惩处一个负伤的敌方近邻</t>
   </si>
   <si>
     <t>axe_culling_blade</t>
@@ -111,7 +111,7 @@
     <t>SmallSkill_yanhanzhuoshao</t>
   </si>
   <si>
-    <t>严寒灼烧：冰龙移动到一个友方空格，并使其获得5点攻击力</t>
+    <t>3水晶 冰龙小 严寒灼烧：冰龙移动到一个友方空格，并使其获得5点攻击力</t>
   </si>
   <si>
     <t>abyssal_underlord_pit_of_malice</t>
@@ -120,25 +120,25 @@
     <t>SmallSkill_xili</t>
   </si>
   <si>
-    <t>洗礼：为一个友方单位恢复3/5/7点生命值，并对该单位的敌方近邻造成3/5/7点纯粹伤害</t>
+    <t>4水晶 全能小 洗礼：为一个友方单位恢复3/5/7点生命值，并对该单位的敌方近邻造成3/5/7点纯粹伤害</t>
   </si>
   <si>
     <t>omniknight_purification</t>
   </si>
   <si>
-    <t>SmallSkill_longpizhan</t>
-  </si>
-  <si>
-    <t>龙破斩：选择一个敌方单位，对其和其近邻造成3/5/7点伤害</t>
-  </si>
-  <si>
-    <t>lina_dragon_slave</t>
+    <t>SmallSkill_guangjizhen</t>
+  </si>
+  <si>
+    <t>3水晶 丽娜小 光击阵：眩晕丽娜的敌方近邻，并造成2/4/6点伤害</t>
+  </si>
+  <si>
+    <t>lina_light_strike_array</t>
   </si>
   <si>
     <t>SmallSkill_emozhuanhua</t>
   </si>
   <si>
-    <t>恶魔转化：惩处一个友方单位召唤3个3攻3血的小谜团</t>
+    <t>3水晶 谜团小 恶魔转化：惩处一个友方单位召唤3个3攻3血的小谜团</t>
   </si>
   <si>
     <t>enigma_demonic_conversion</t>
@@ -147,7 +147,7 @@
     <t>SmallSkill_suboji</t>
   </si>
   <si>
-    <t>束缚击：选择一个敌方单位，使其和其右边的一个敌方单位眩晕</t>
+    <t>3水晶 风行小 束缚击：选择一个敌方单位，使其和其右边的一个敌方单位眩晕</t>
   </si>
   <si>
     <t>windrunner_shackleshot</t>
@@ -156,25 +156,25 @@
     <t>SmallSkill_chuansong</t>
   </si>
   <si>
-    <t>传送：将先知移动到地图的任意友方空格</t>
+    <t>2水晶 先知小 传送：将先知移动到地图的任意友方空格，并获得2点攻击力</t>
   </si>
   <si>
     <t>furion_teleportation</t>
   </si>
   <si>
-    <t>SmallSkill_hongliu</t>
-  </si>
-  <si>
-    <t>洪流：眩晕昆卡的敌方近邻，并造成3点伤害</t>
-  </si>
-  <si>
-    <t>kunkka_torrent</t>
+    <t>SmallSkill_shuidao</t>
+  </si>
+  <si>
+    <t>4水晶 船长小 水刀：对船长的敌方近邻造成等同于（船长当前攻击力的一半）的伤害，向下取整</t>
+  </si>
+  <si>
+    <t>kunkka_tidebringer</t>
   </si>
   <si>
     <t>SmallSkill_huohuan</t>
   </si>
   <si>
-    <t>惑幻：召唤一个等同于恐怖利刃基础数值的幻想</t>
+    <t>3水晶 TB小    惑幻：召唤一个等同于恐怖利刃基础数值的幻像</t>
   </si>
   <si>
     <t>terrorblade_conjure_image</t>
@@ -183,7 +183,7 @@
     <t>SmallSkill_julang</t>
   </si>
   <si>
-    <t>巨浪：选择一个敌方单位，移除其抗性值</t>
+    <t>3水晶 潮汐小  巨浪：选择一个敌方单位，移除其抗性值</t>
   </si>
   <si>
     <t>tidehunter_gush</t>
@@ -192,17 +192,16 @@
     <t>SmallSkill_zhimangzhiguang</t>
   </si>
   <si>
-    <t xml:space="preserve">致盲之光：将一个敌方单位移动到另一个敌方空格中，并对其造成3/5/8点魔法伤害
-</t>
+    <t>3水晶 光法小 致盲之光：将一个敌方单位移动到另一个敌方空格中，并对其造成3/5/8点魔法伤害</t>
   </si>
   <si>
     <t>keeper_of_the_light_blinding_light</t>
   </si>
   <si>
-    <t>SmallSkill_shengmingjiqu</t>
-  </si>
-  <si>
-    <t>生命汲取：选择一个单位造成3/5/8点伤害，并恢复帕格纳等量生命值</t>
+    <t>SmallSkill_shuailao</t>
+  </si>
+  <si>
+    <t>3水晶 骨法小 衰老：选择一个敌方单位使其不能攻击且不会受到攻击，并承受双倍技能伤害</t>
   </si>
   <si>
     <t>pugna_decrepify</t>
@@ -211,7 +210,7 @@
     <t>SmallSkill_julizhongji</t>
   </si>
   <si>
-    <t>巨力重击：眩晕对格敌方单位，并使其移动到一个敌方空格内</t>
+    <t>2水晶 白牛小 巨力重击：眩晕对格敌方单位，并使其移动到一个敌方空格内</t>
   </si>
   <si>
     <t>spirit_breaker_greater_bash</t>
@@ -220,184 +219,283 @@
     <t>SmallSkill_zhaominghuojian</t>
   </si>
   <si>
-    <t>照明火箭：选择一个敌方单位对其近邻造成3/5/7点物理伤害（跨线技能）</t>
+    <t>4水晶 发条小 照明火箭：选择一个敌方单位对其近邻造成3/5/7点物理伤害（跨线技能）</t>
+  </si>
+  <si>
+    <t>rattletrap_rocket_flare</t>
   </si>
   <si>
     <t>SmallSkill_yexingzhaohuanyezhu</t>
   </si>
   <si>
-    <t>野性呼唤豪猪：召唤一只4攻7血的豪猪</t>
-  </si>
-  <si>
-    <t>SmallSkill_redaofeidan</t>
-  </si>
-  <si>
-    <t>热导飞弹：对敌方单位随机释放3枚导弹,每枚导弹造成3/5/7点伤害</t>
+    <t>3水晶 兽王小 野性呼唤豪猪：野性呼唤豪猪：召唤两只4攻7血的豪猪</t>
+  </si>
+  <si>
+    <t>beastmaster_call_of_the_wild_boar</t>
+  </si>
+  <si>
+    <t>SmallSkill_jiguang</t>
+  </si>
+  <si>
+    <t>3水晶 丁哥小 激光：选择一个敌方单位对其造成3/5/7点伤害，并使该敌方单位本回合无法攻击</t>
+  </si>
+  <si>
+    <t>tinker_laser</t>
+  </si>
+  <si>
+    <t>SmallSkill_kuangfeng</t>
+  </si>
+  <si>
+    <t>3水晶 小黑小 狂风：沉默一个敌方英雄并使该英雄，移动到另一个敌方空格</t>
+  </si>
+  <si>
+    <t>zuus_thundergods_wrath</t>
+  </si>
+  <si>
+    <t>SmallSkill_bingshuangxuanwo</t>
+  </si>
+  <si>
+    <t>4水晶 冰魂小 冰霜漩涡：使冰魂的敌方近邻降低2点抗性值</t>
+  </si>
+  <si>
+    <t>legion_commander_press_the_attack</t>
+  </si>
+  <si>
+    <t>SmallSkill_shenshengquanhua</t>
+  </si>
+  <si>
+    <t>4水晶 老陈小 神圣劝化：将敌方一个非英雄单位召唤为己方单位</t>
+  </si>
+  <si>
+    <t>sniper_assassinate</t>
+  </si>
+  <si>
+    <t>SmallSkill_siwangmaichong</t>
+  </si>
+  <si>
+    <t>4水晶 NEC小 死亡脉冲：对敌方近邻造成3/5/7点伤害，并对友方近邻治疗3/5/7点生命值</t>
+  </si>
+  <si>
+    <t>phantom_assassin_coup_de_grace</t>
+  </si>
+  <si>
+    <t>SmallSkill_huojiandanmu</t>
+  </si>
+  <si>
+    <t>5水晶 飞机小 火箭弹幕：对本条兵线上的所有随机敌方单位施放10次1/2/3点伤害的火箭弹幕</t>
+  </si>
+  <si>
+    <t>axe_berserkers_call</t>
   </si>
   <si>
     <t>TrickSkill_leishenzhinu</t>
   </si>
   <si>
-    <t>雷神之怒：对所有兵线上的每名敌方英雄造成3/5/7点纯粹伤害</t>
-  </si>
-  <si>
-    <t>zuus_thundergods_wrath</t>
+    <t>7水晶 宙斯大 雷神之怒：对所有兵线上的每名敌方英雄造成4/6/8点纯粹伤害</t>
+  </si>
+  <si>
+    <t>winter_wyvern_winters_curse</t>
   </si>
   <si>
     <t>TrickSkill_qianggong</t>
   </si>
   <si>
-    <t>强攻：解除一个友方单位的控制效果，并获得4攻击力回复4生命值</t>
-  </si>
-  <si>
-    <t>legion_commander_press_the_attack</t>
+    <t>4水晶 军团大 强攻：解除一个友方单位的控制效果，并获得3攻击力回复3生命值</t>
+  </si>
+  <si>
+    <t>omniknight_guardian_angel</t>
   </si>
   <si>
     <t>TrickSkill_ansha</t>
   </si>
   <si>
-    <t>暗杀：对一个敌方单位造成10点纯粹伤害并眩晕（跨线技能）</t>
-  </si>
-  <si>
-    <t>sniper_assassinate</t>
+    <t>6水晶 火枪大 暗杀：对一个敌方单位造成10/12/15点纯粹伤害并眩晕（跨线技能）</t>
+  </si>
+  <si>
+    <t>lina_laguna_blade</t>
   </si>
   <si>
     <t>TrickSkill_encijietuo</t>
   </si>
   <si>
-    <t>恩赐解脱：惩处一名敌方英雄 本路所有</t>
-  </si>
-  <si>
-    <t>phantom_assassin_coup_de_grace</t>
+    <t>6水晶 幻刺大 恩赐解脱：惩处一名敌方英雄 本路所有</t>
+  </si>
+  <si>
+    <t>enigma_black_hole</t>
   </si>
   <si>
     <t>TrickSkill_kuangzhanshizhihou</t>
   </si>
   <si>
-    <t xml:space="preserve">狂战士之吼：斧王与敌方近邻战斗 </t>
-  </si>
-  <si>
-    <t>axe_berserkers_call</t>
+    <t>6水晶 斧王大 狂战士之吼：斧王与敌方近邻战斗</t>
+  </si>
+  <si>
+    <t>windrunner_focusfire</t>
   </si>
   <si>
     <t>TrickSkill_handongzuzhou</t>
   </si>
   <si>
-    <t>寒冬诅咒：选择一个敌方英雄，使其与另一个敌方英雄决斗</t>
-  </si>
-  <si>
-    <t>winter_wyvern_winters_curse</t>
+    <t>6水晶 冰龙大 寒冬诅咒：选择一个敌方英雄，使其与另一个敌方英雄决斗</t>
+  </si>
+  <si>
+    <t>furion_force_of_nature</t>
   </si>
   <si>
     <t>TrickSkill_shouhutianshi</t>
   </si>
   <si>
-    <t>守护天使：使本回合所有的友方单位获得伤害免疫</t>
-  </si>
-  <si>
-    <t>omniknight_guardian_angel</t>
+    <t>6水晶 全能大 守护天使：使本回合所有的友方单位获得伤害免疫</t>
+  </si>
+  <si>
+    <t>kunkka_ghostship</t>
   </si>
   <si>
     <t>TrickSkill_mieshenzhan</t>
   </si>
   <si>
-    <t>神灭斩：对一个敌方单位造11/14/17点魔法伤害</t>
-  </si>
-  <si>
-    <t>lina_laguna_blade</t>
+    <t>7水晶 丽娜大 神灭斩：对一个敌方单位造11/13/16点伤害</t>
+  </si>
+  <si>
+    <t>terrorblade_sunder</t>
   </si>
   <si>
     <t>TrickSkill_heidong</t>
   </si>
   <si>
-    <t>黑洞：对正面3格单位造成眩晕，并造成5/7/10点魔法伤害</t>
-  </si>
-  <si>
-    <t>enigma_black_hole</t>
+    <t>7水晶 谜团大 黑洞：对正面3格单位造成眩晕，并造成5/7/10点魔法伤害</t>
+  </si>
+  <si>
+    <t>tidehunter_ravage</t>
   </si>
   <si>
     <t>TrickSkill_jizhonghuoli</t>
   </si>
   <si>
-    <t>集中火力：选择一个敌方单位或者敌方防御塔造成3次5/6/8点纯粹伤害</t>
-  </si>
-  <si>
-    <t>windrunner_focusfire</t>
+    <t>8水晶 风行大 集中火力：选择一个敌方单位或者敌方防御塔造成3次5/6/8点纯粹伤害</t>
+  </si>
+  <si>
+    <t>keeper_of_the_light_illuminate</t>
   </si>
   <si>
     <t>TrickSkill_zirandezhaohuan</t>
   </si>
   <si>
-    <t>自然的召唤：召唤3攻6血的小树人直到上限</t>
-  </si>
-  <si>
-    <t>furion_force_of_nature</t>
+    <t>5水晶 先知大 自然的召唤：召唤6攻6血的小树人直到上限</t>
+  </si>
+  <si>
+    <t>pugna_nether_blast</t>
   </si>
   <si>
     <t>TrickSkill_youlingchuan</t>
   </si>
   <si>
-    <t>幽灵船：对一个敌方英雄施放一艘船使其眩晕并造成6点伤害，路径上的所有友方英雄获得2点抗性（跨线技能）</t>
-  </si>
-  <si>
-    <t>kunkka_ghostship</t>
+    <t>6水晶 船长大 幽灵船：对一个敌方英雄施放一艘船使其眩晕并造成6点伤害，路径上的所有友方英雄获得2点抗性（跨线技能）</t>
+  </si>
+  <si>
+    <t>spirit_breaker_charge_of_darkness</t>
   </si>
   <si>
     <t>TrickSkill_hunduan</t>
   </si>
   <si>
-    <t>魂断：选择一个单位，使恐怖利刃和其交换当前生命值</t>
-  </si>
-  <si>
-    <t>terrorblade_sunder</t>
+    <t>4水晶 TB大   魂断：选择一个单位，使恐怖利刃和其交换当前生命值</t>
+  </si>
+  <si>
+    <t>rattletrap_hookshot</t>
   </si>
   <si>
     <t>TrickSkill_huimie</t>
   </si>
   <si>
-    <t>毁灭：本回合眩晕本路所有敌方单位，并造成2/3/4点物理伤害</t>
-  </si>
-  <si>
-    <t>tidehunter_ravage</t>
+    <t>7水晶 潮汐大 毁灭：本回合眩晕本路所有敌方单位，并造成2/3/4点物理伤害</t>
+  </si>
+  <si>
+    <t>beastmaster_wild_axes</t>
   </si>
   <si>
     <t>TrickSkill_chongjibo</t>
   </si>
   <si>
-    <t>冲击波：对本路全体敌方单位造成5/7/10点魔法伤害</t>
-  </si>
-  <si>
-    <t>keeper_of_the_light_illuminate</t>
+    <t>6水晶 光法大 冲击波：对本路全体敌方单位造成5/7/10点魔法伤害</t>
+  </si>
+  <si>
+    <t>tinker_rearm</t>
   </si>
   <si>
     <t>TrickSkill_youminghongbao</t>
   </si>
   <si>
-    <t>幽冥轰爆：对敌方近邻和防御塔造成5/7/10点伤害</t>
+    <t>5水晶 骨法大 幽冥轰爆：对敌方近邻和防御塔造成5/7/10点伤害</t>
   </si>
   <si>
     <t>TrickSkill_anyingchongchi</t>
   </si>
   <si>
-    <t>暗影冲刺：选择一个敌方英雄与之战斗,裂魂人进入与该英雄距离最近的友方空格（跨线技能）</t>
+    <t>4水晶 白牛大 暗影冲刺：选择一个敌方英雄与之战斗,裂魂人进入与该英雄距离最近的友方空格（跨线技能）</t>
   </si>
   <si>
     <t>TrickSkill_fashegouzhua</t>
   </si>
   <si>
-    <t>发射钩爪：发条移动到一个友方空格，对该空格的对格敌方目标造成眩晕和6点物理伤害（跨线技能）</t>
+    <t>5水晶 发条大 发射钩爪：发条移动到一个友方空格，对该空格的对格敌方目标造成眩晕和6点物理伤害（跨线技能）</t>
   </si>
   <si>
     <t>TrickSkill_yexingzhaohuanzhanying</t>
   </si>
   <si>
-    <t>野性呼唤战鹰：召唤一只6攻9血的战鹰（跨线技能）</t>
+    <t>5水晶兽王大 野性呼唤战鹰：召唤一只6攻9血的战鹰（跨线技能）</t>
   </si>
   <si>
     <t>TrickSkill_jixiexingjun</t>
   </si>
   <si>
-    <t>机械行军：对所有兵线上的敌方单位造成3/4/6点魔法伤害</t>
+    <t>7水晶 丁哥大 机械行军：对一条兵线上的所有敌方单位造成4次1/2/3点伤害(跨线技能)</t>
+  </si>
+  <si>
+    <t>TrickSkill_sheshoutianfu</t>
+  </si>
+  <si>
+    <t>6水晶 小黑大 射手天赋：对一个敌方单位造成两倍于卓尔游侠当前攻击力的伤害</t>
+  </si>
+  <si>
+    <t>drow_ranger_marksmanship</t>
+  </si>
+  <si>
+    <t>TrickSkill_bingjinghongbao</t>
+  </si>
+  <si>
+    <t>7水晶 冰魂大 冰晶轰爆：惩处一名受伤的敌方英雄（跨线技能）</t>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_blast</t>
+  </si>
+  <si>
+    <t>TrickSkill_shangdizhishou</t>
+  </si>
+  <si>
+    <t>7水晶 老陈大 上帝之手：为所有己方英雄治疗4/6/8点生命值</t>
+  </si>
+  <si>
+    <t>chen_hand_of_god</t>
+  </si>
+  <si>
+    <t>TrickSkill_sishenliandao</t>
+  </si>
+  <si>
+    <t>6水晶 NEC大 死神镰刀：眩晕一名敌方英雄，并对改单位造成等同于（当前其以损失的生命值）的伤害</t>
+  </si>
+  <si>
+    <t>necrolyte_reapers_scythe</t>
+  </si>
+  <si>
+    <t>TrickSkill_zhaohuanfeidan</t>
+  </si>
+  <si>
+    <t>6水晶 飞机大 召唤飞弹：对本条兵线上的所有敌方单位造成2次2/3/5点伤害</t>
+  </si>
+  <si>
+    <t>gyrocopter_call_down</t>
   </si>
 </sst>
 </file>
@@ -405,12 +503,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,10 +529,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,14 +550,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,9 +602,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,29 +619,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,6 +650,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -543,39 +679,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,187 +695,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,22 +910,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,6 +930,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,6 +960,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,32 +999,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,10 +1015,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,141 +1027,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,16 +1175,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1412,10 +1542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1423,31 +1553,31 @@
     <col min="1" max="1" width="44.875" customWidth="1"/>
     <col min="3" max="3" width="32.375" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="38.625" customWidth="1"/>
+    <col min="6" max="6" width="38.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="39.25" customWidth="1"/>
     <col min="8" max="8" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1455,25 +1585,25 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H2" t="s">
@@ -1481,338 +1611,338 @@
       </c>
     </row>
     <row r="3" ht="34.5" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>22</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="34.5" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
         <v>104</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="34.5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="34.5" spans="1:8">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="51.75" spans="1:8">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>44</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
-      <c r="A7" s="1" t="s">
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" ht="34.5" spans="1:8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>112</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" ht="51.75" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>57</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G9">
         <v>7</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" ht="34.5" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>25</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" ht="34.5" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>33</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G11">
         <v>9</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" ht="34.5" spans="1:8">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>21</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G12">
         <v>10</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
-      <c r="A13" s="1" t="s">
+    <row r="13" ht="34.5" spans="1:8">
+      <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
         <v>53</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G13">
         <v>11</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="34.5" spans="1:8">
-      <c r="A14" s="1" t="s">
+    <row r="14" ht="51.75" spans="1:8">
+      <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>23</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G14">
         <v>12</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" ht="34.5" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>109</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G15">
         <v>13</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" ht="17.25" spans="1:8">
-      <c r="A16" s="1" t="s">
+    <row r="16" ht="34.5" spans="1:8">
+      <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>29</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G16">
         <v>14</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" ht="69" spans="1:8">
-      <c r="A17" s="1" t="s">
+    <row r="17" ht="51.75" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>90</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1821,559 +1951,783 @@
       <c r="G17">
         <v>15</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" ht="34.5" spans="1:8">
-      <c r="A18" s="1" t="s">
+    <row r="18" ht="51.75" spans="1:8">
+      <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="2">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
         <v>45</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G18">
         <v>16</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" ht="34.5" spans="1:8">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
         <v>71</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="9" t="s">
         <v>64</v>
       </c>
       <c r="G19">
         <v>17</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" ht="34.5" spans="1:7">
-      <c r="A20" s="1" t="s">
+    <row r="20" ht="51.75" spans="1:8">
+      <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>51</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="9" t="s">
         <v>67</v>
       </c>
       <c r="G20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" ht="17.25" spans="1:7">
-      <c r="A21" s="1" t="s">
+      <c r="H20" s="8" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="21" ht="34.5" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5">
         <v>38</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>69</v>
+      <c r="F21" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="G21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" ht="34.5" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>70</v>
+      <c r="H21" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" ht="51.75" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>3</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>34</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>71</v>
+      <c r="F22" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
+      <c r="H22" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="23" ht="34.5" spans="1:8">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
+      <c r="D23" s="10">
+        <v>6</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" ht="34.5" spans="1:8">
+      <c r="A24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="10">
+        <v>68</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" ht="34.5" spans="1:8">
+      <c r="A25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4</v>
+      </c>
+      <c r="D25" s="10">
+        <v>66</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" ht="51.75" spans="1:8">
+      <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4</v>
+      </c>
+      <c r="D26" s="10">
+        <v>36</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" ht="51.75" spans="1:8">
+      <c r="A27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
+      <c r="D27" s="10">
         <v>72</v>
       </c>
-      <c r="B23" s="7">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="F27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" ht="34.5" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5">
+        <v>22</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28">
+        <v>21</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" ht="34.5" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4">
+        <v>4</v>
+      </c>
+      <c r="D29" s="5">
+        <v>104</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" ht="34.5" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4">
         <v>6</v>
       </c>
-      <c r="D23" s="3">
-        <v>22</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23">
+      <c r="D30" s="5">
+        <v>35</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30">
+        <v>23</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" ht="34.5" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5">
+        <v>44</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>24</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" ht="34.5" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32">
+        <v>25</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" ht="34.5" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5">
+        <v>112</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33">
+        <v>26</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" ht="34.5" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6</v>
+      </c>
+      <c r="D34" s="5">
+        <v>57</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34">
+        <v>27</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" ht="34.5" spans="1:8">
+      <c r="A35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="11">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5">
+        <v>25</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35">
+        <v>28</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" ht="34.5" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="11">
+        <v>2</v>
+      </c>
+      <c r="C36" s="4">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5">
+        <v>33</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36">
+        <v>29</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" ht="51.75" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="11">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4">
+        <v>8</v>
+      </c>
+      <c r="D37" s="5">
         <v>21</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" ht="34.5" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="7">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="F37" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" ht="34.5" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="11">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4">
         <v>5</v>
       </c>
-      <c r="D24" s="3">
-        <v>104</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24">
-        <v>22</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" ht="34.5" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="7">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="D38" s="5">
+        <v>53</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38">
+        <v>31</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" ht="51.75" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="11">
+        <v>2</v>
+      </c>
+      <c r="C39" s="4">
         <v>6</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D39" s="5">
+        <v>23</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39">
+        <v>32</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" ht="34.5" spans="1:8">
+      <c r="A40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5">
+        <v>109</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40">
+        <v>33</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" ht="34.5" spans="1:8">
+      <c r="A41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="11">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5">
+        <v>29</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41">
+        <v>34</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" ht="34.5" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="11">
+        <v>2</v>
+      </c>
+      <c r="C42" s="4">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5">
+        <v>90</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42">
         <v>35</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25">
-        <v>23</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" ht="17.25" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="7">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="H42" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" ht="34.5" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="11">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4">
         <v>5</v>
       </c>
-      <c r="D26" s="3">
-        <v>44</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26">
-        <v>24</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" ht="17.25" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="7">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="D43" s="5">
+        <v>45</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43">
+        <v>36</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" ht="51.75" spans="1:8">
+      <c r="A44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="11">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4">
+        <v>4</v>
+      </c>
+      <c r="D44" s="5">
+        <v>71</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44">
+        <v>37</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" ht="51.75" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="11">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4">
         <v>5</v>
       </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27">
-        <v>25</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" ht="34.5" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="7">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="D45" s="5">
+        <v>51</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45">
+        <v>38</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" ht="34.5" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="11">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4">
         <v>5</v>
       </c>
-      <c r="D28" s="3">
-        <v>112</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28">
-        <v>26</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" ht="34.5" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="7">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" s="3">
-        <v>57</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" ht="34.5" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="7">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5</v>
-      </c>
-      <c r="D30" s="3">
-        <v>25</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30">
-        <v>28</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" ht="34.5" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="7">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="D46" s="5">
+        <v>38</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46">
+        <v>39</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" ht="51.75" spans="1:8">
+      <c r="A47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="11">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5">
+        <v>34</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47">
+        <v>40</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" ht="34.5" spans="1:8">
+      <c r="A48" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4">
         <v>6</v>
       </c>
-      <c r="D31" s="3">
-        <v>33</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31">
-        <v>29</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" ht="34.5" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="7">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="D48" s="12">
+        <v>6</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" ht="34.5" spans="1:8">
+      <c r="A49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="4">
         <v>7</v>
       </c>
-      <c r="D32" s="3">
-        <v>21</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32">
-        <v>30</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" ht="34.5" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="7">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2">
-        <v>5</v>
-      </c>
-      <c r="D33" s="3">
-        <v>53</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33">
-        <v>31</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" ht="49.5" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="7">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="D49" s="12">
+        <v>68</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" ht="34.5" spans="1:8">
+      <c r="A50" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4">
+        <v>7</v>
+      </c>
+      <c r="D50" s="12">
+        <v>66</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" ht="51.75" spans="1:8">
+      <c r="A51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="4">
         <v>6</v>
       </c>
-      <c r="D34" s="3">
-        <v>23</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34">
-        <v>32</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" ht="34.5" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="7">
-        <v>2</v>
-      </c>
-      <c r="C35" s="2">
-        <v>4</v>
-      </c>
-      <c r="D35" s="3">
-        <v>109</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35">
-        <v>33</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" ht="34.5" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="7">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2">
+      <c r="D51" s="12">
+        <v>36</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" ht="34.5" spans="1:8">
+      <c r="A52" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4">
         <v>6</v>
       </c>
-      <c r="D36" s="3">
-        <v>29</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36">
-        <v>34</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" ht="34.5" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="7">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2">
-        <v>6</v>
-      </c>
-      <c r="D37" s="3">
-        <v>90</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37">
-        <v>35</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" ht="34.5" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="7">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2">
-        <v>5</v>
-      </c>
-      <c r="D38" s="3">
-        <v>45</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" ht="33" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="7">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2">
-        <v>4</v>
-      </c>
-      <c r="D39" s="3">
-        <v>71</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" ht="33" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="7">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3">
-        <v>51</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" ht="34.5" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="7">
-        <v>2</v>
-      </c>
-      <c r="C41" s="2">
-        <v>5</v>
-      </c>
-      <c r="D41" s="3">
-        <v>38</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" ht="34.5" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="7">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2">
-        <v>6</v>
-      </c>
-      <c r="D42" s="3">
-        <v>34</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42">
-        <v>40</v>
+      <c r="D52" s="12">
+        <v>72</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/excels/Ability.xlsx
+++ b/excels/Ability.xlsx
@@ -504,9 +504,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -543,117 +543,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -680,7 +572,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,25 +701,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,157 +869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,17 +910,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,21 +924,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,11 +945,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,20 +967,43 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,10 +1015,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,137 +1027,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1178,7 +1178,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1545,7 +1544,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1790,7 +1789,7 @@
       <c r="G10">
         <v>8</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1876,13 +1875,13 @@
       <c r="D14" s="5">
         <v>23</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>49</v>
       </c>
       <c r="G14">
         <v>12</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1968,7 +1967,7 @@
       <c r="D18" s="5">
         <v>45</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>61</v>
       </c>
       <c r="G18">
@@ -1991,7 +1990,7 @@
       <c r="D19" s="5">
         <v>71</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>64</v>
       </c>
       <c r="G19">
@@ -2014,13 +2013,13 @@
       <c r="D20" s="5">
         <v>51</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G20">
         <v>18</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2037,13 +2036,13 @@
       <c r="D21" s="5">
         <v>38</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G21">
         <v>19</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2060,13 +2059,13 @@
       <c r="D22" s="5">
         <v>34</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>73</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2080,10 +2079,10 @@
       <c r="C23" s="4">
         <v>3</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>6</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>76</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -2100,10 +2099,10 @@
       <c r="C24" s="4">
         <v>4</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>68</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>79</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -2120,10 +2119,10 @@
       <c r="C25" s="4">
         <v>4</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>66</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>82</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -2140,10 +2139,10 @@
       <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>36</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -2160,10 +2159,10 @@
       <c r="C27" s="4">
         <v>5</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>72</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -2174,7 +2173,7 @@
       <c r="A28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>2</v>
       </c>
       <c r="C28" s="4">
@@ -2197,7 +2196,7 @@
       <c r="A29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>2</v>
       </c>
       <c r="C29" s="4">
@@ -2220,7 +2219,7 @@
       <c r="A30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>2</v>
       </c>
       <c r="C30" s="4">
@@ -2243,7 +2242,7 @@
       <c r="A31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>2</v>
       </c>
       <c r="C31" s="4">
@@ -2266,7 +2265,7 @@
       <c r="A32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>2</v>
       </c>
       <c r="C32" s="4">
@@ -2289,7 +2288,7 @@
       <c r="A33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>2</v>
       </c>
       <c r="C33" s="4">
@@ -2312,7 +2311,7 @@
       <c r="A34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>2</v>
       </c>
       <c r="C34" s="4">
@@ -2335,7 +2334,7 @@
       <c r="A35" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>2</v>
       </c>
       <c r="C35" s="4">
@@ -2358,7 +2357,7 @@
       <c r="A36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>2</v>
       </c>
       <c r="C36" s="4">
@@ -2381,7 +2380,7 @@
       <c r="A37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>2</v>
       </c>
       <c r="C37" s="4">
@@ -2404,7 +2403,7 @@
       <c r="A38" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>2</v>
       </c>
       <c r="C38" s="4">
@@ -2419,7 +2418,7 @@
       <c r="G38">
         <v>31</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2427,7 +2426,7 @@
       <c r="A39" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>2</v>
       </c>
       <c r="C39" s="4">
@@ -2442,7 +2441,7 @@
       <c r="G39">
         <v>32</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="5" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2450,7 +2449,7 @@
       <c r="A40" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>2</v>
       </c>
       <c r="C40" s="4">
@@ -2465,7 +2464,7 @@
       <c r="G40">
         <v>33</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="5" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2473,7 +2472,7 @@
       <c r="A41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>2</v>
       </c>
       <c r="C41" s="4">
@@ -2488,7 +2487,7 @@
       <c r="G41">
         <v>34</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="5" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2496,7 +2495,7 @@
       <c r="A42" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>2</v>
       </c>
       <c r="C42" s="4">
@@ -2511,7 +2510,7 @@
       <c r="G42">
         <v>35</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2519,7 +2518,7 @@
       <c r="A43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>2</v>
       </c>
       <c r="C43" s="4">
@@ -2534,7 +2533,7 @@
       <c r="G43">
         <v>36</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2542,7 +2541,7 @@
       <c r="A44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>2</v>
       </c>
       <c r="C44" s="4">
@@ -2557,7 +2556,7 @@
       <c r="G44">
         <v>37</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="5" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2565,7 +2564,7 @@
       <c r="A45" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>2</v>
       </c>
       <c r="C45" s="4">
@@ -2580,7 +2579,7 @@
       <c r="G45">
         <v>38</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="5" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2588,7 +2587,7 @@
       <c r="A46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>2</v>
       </c>
       <c r="C46" s="4">
@@ -2603,7 +2602,7 @@
       <c r="G46">
         <v>39</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="5" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2611,7 +2610,7 @@
       <c r="A47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>2</v>
       </c>
       <c r="C47" s="4">
@@ -2626,7 +2625,7 @@
       <c r="G47">
         <v>40</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2640,13 +2639,13 @@
       <c r="C48" s="4">
         <v>6</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <v>6</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="5" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2660,13 +2659,13 @@
       <c r="C49" s="4">
         <v>7</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <v>68</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2680,13 +2679,13 @@
       <c r="C50" s="4">
         <v>7</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <v>66</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2700,13 +2699,13 @@
       <c r="C51" s="4">
         <v>6</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>36</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="5" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2720,13 +2719,13 @@
       <c r="C52" s="4">
         <v>6</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>72</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="5" t="s">
         <v>159</v>
       </c>
     </row>

--- a/excels/Ability.xlsx
+++ b/excels/Ability.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="164">
   <si>
     <t>类名</t>
   </si>
@@ -84,7 +84,7 @@
     <t>SmallSkill_baotou</t>
   </si>
   <si>
-    <t>3水晶 火枪小 爆头：选择火枪的一个敌方近邻造成5/7/10点物理伤害</t>
+    <t>3水晶 火枪小 爆头：选择火枪的一个敌方近邻造成6/8/10点物理伤害</t>
   </si>
   <si>
     <t>sniper_headshot</t>
@@ -96,7 +96,7 @@
     <t>4水晶 幻刺小 幻影突袭：选择一个敌方单位造成4/6/9点物理伤害，并移动到一个友方空格</t>
   </si>
   <si>
-    <t>phantom_assassin_phantom_strike</t>
+    <t>greevil_phantom_strike</t>
   </si>
   <si>
     <t>SmallSkill_taotaizhiren</t>
@@ -183,7 +183,7 @@
     <t>SmallSkill_julang</t>
   </si>
   <si>
-    <t>3水晶 潮汐小  巨浪：选择一个敌方单位，移除其抗性值</t>
+    <t>3水晶 潮汐小  巨浪：选择一个敌方单位，移除其抗性值,造成伤害3/5/7</t>
   </si>
   <si>
     <t>tidehunter_gush</t>
@@ -201,7 +201,7 @@
     <t>SmallSkill_shuailao</t>
   </si>
   <si>
-    <t>3水晶 骨法小 衰老：选择一个敌方单位使其不能攻击且不会受到攻击，并承受双倍技能伤害</t>
+    <t>2水晶 骨法小 衰老：选择一个敌方单位使其不能攻击且不会受到攻击，并承受双倍技能伤害</t>
   </si>
   <si>
     <t>pugna_decrepify</t>
@@ -228,7 +228,7 @@
     <t>SmallSkill_yexingzhaohuanyezhu</t>
   </si>
   <si>
-    <t>3水晶 兽王小 野性呼唤豪猪：野性呼唤豪猪：召唤两只4攻7血的豪猪</t>
+    <t>3水晶 兽王小 野性呼唤豪猪：野性呼唤豪猪：召唤两只3攻6血的豪猪</t>
   </si>
   <si>
     <t>beastmaster_call_of_the_wild_boar</t>
@@ -249,208 +249,220 @@
     <t>3水晶 小黑小 狂风：沉默一个敌方英雄并使该英雄，移动到另一个敌方空格</t>
   </si>
   <si>
+    <t>drow_ranger_silence</t>
+  </si>
+  <si>
+    <t>SmallSkill_bingshuangxuanwo</t>
+  </si>
+  <si>
+    <t>4水晶 冰魂小 冰霜漩涡：使冰魂的敌方近邻降低2点抗性值</t>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_vortex</t>
+  </si>
+  <si>
+    <t>SmallSkill_shenshengquanhua</t>
+  </si>
+  <si>
+    <t>4水晶 老陈小 神圣劝化：将敌方一个非英雄单位召唤为己方单位</t>
+  </si>
+  <si>
+    <t>chen_holy_persuasion</t>
+  </si>
+  <si>
+    <t>SmallSkill_siwangmaichong</t>
+  </si>
+  <si>
+    <t>4水晶 NEC小 死亡脉冲：对敌方近邻造成3/5/7点伤害，并对友方近邻治疗3/5/7点生命值</t>
+  </si>
+  <si>
+    <t>necrolyte_death_pulse</t>
+  </si>
+  <si>
+    <t>SmallSkill_huojiandanmu</t>
+  </si>
+  <si>
+    <t>5水晶 飞机小 火箭弹幕：对本条兵线上的所有随机敌方单位施放10次1/2/3点伤害的火箭弹幕</t>
+  </si>
+  <si>
+    <t>gyrocopter_rocket_barrage</t>
+  </si>
+  <si>
+    <t>TrickSkill_leishenzhinu</t>
+  </si>
+  <si>
+    <t>7水晶 宙斯大 雷神之怒：对所有兵线上的每名敌方英雄造成4/6/8点纯粹伤害</t>
+  </si>
+  <si>
     <t>zuus_thundergods_wrath</t>
   </si>
   <si>
-    <t>SmallSkill_bingshuangxuanwo</t>
-  </si>
-  <si>
-    <t>4水晶 冰魂小 冰霜漩涡：使冰魂的敌方近邻降低2点抗性值</t>
-  </si>
-  <si>
-    <t>legion_commander_press_the_attack</t>
-  </si>
-  <si>
-    <t>SmallSkill_shenshengquanhua</t>
-  </si>
-  <si>
-    <t>4水晶 老陈小 神圣劝化：将敌方一个非英雄单位召唤为己方单位</t>
+    <t>TrickSkill_qianggong</t>
+  </si>
+  <si>
+    <t>4水晶 军团大 强攻：解除一个友方单位的控制效果，并获得3攻击力回复3生命值</t>
+  </si>
+  <si>
+    <t>omniknight_guardian_angel</t>
+  </si>
+  <si>
+    <t>TrickSkill_ansha</t>
+  </si>
+  <si>
+    <t>6水晶 火枪大 暗杀：对一个敌方单位造成10/12/15点纯粹伤害并眩晕（跨线技能）</t>
   </si>
   <si>
     <t>sniper_assassinate</t>
   </si>
   <si>
-    <t>SmallSkill_siwangmaichong</t>
-  </si>
-  <si>
-    <t>4水晶 NEC小 死亡脉冲：对敌方近邻造成3/5/7点伤害，并对友方近邻治疗3/5/7点生命值</t>
+    <t>TrickSkill_encijietuo</t>
+  </si>
+  <si>
+    <t>6水晶 幻刺大 恩赐解脱：惩处一名敌方英雄 本路所有</t>
   </si>
   <si>
     <t>phantom_assassin_coup_de_grace</t>
   </si>
   <si>
-    <t>SmallSkill_huojiandanmu</t>
-  </si>
-  <si>
-    <t>5水晶 飞机小 火箭弹幕：对本条兵线上的所有随机敌方单位施放10次1/2/3点伤害的火箭弹幕</t>
+    <t>TrickSkill_kuangzhanshizhihou</t>
+  </si>
+  <si>
+    <t>6水晶 斧王大 狂战士之吼：斧王与敌方近邻战斗</t>
   </si>
   <si>
     <t>axe_berserkers_call</t>
   </si>
   <si>
-    <t>TrickSkill_leishenzhinu</t>
-  </si>
-  <si>
-    <t>7水晶 宙斯大 雷神之怒：对所有兵线上的每名敌方英雄造成4/6/8点纯粹伤害</t>
+    <t>TrickSkill_handongzuzhou</t>
+  </si>
+  <si>
+    <t>6水晶 冰龙大 寒冬诅咒：选择一个敌方英雄，使其与另一个敌方英雄决斗</t>
   </si>
   <si>
     <t>winter_wyvern_winters_curse</t>
   </si>
   <si>
-    <t>TrickSkill_qianggong</t>
-  </si>
-  <si>
-    <t>4水晶 军团大 强攻：解除一个友方单位的控制效果，并获得3攻击力回复3生命值</t>
-  </si>
-  <si>
-    <t>omniknight_guardian_angel</t>
-  </si>
-  <si>
-    <t>TrickSkill_ansha</t>
-  </si>
-  <si>
-    <t>6水晶 火枪大 暗杀：对一个敌方单位造成10/12/15点纯粹伤害并眩晕（跨线技能）</t>
+    <t>TrickSkill_shouhutianshi</t>
+  </si>
+  <si>
+    <t>6水晶 全能大 守护天使：使本回合所有的友方单位获得伤害免疫</t>
+  </si>
+  <si>
+    <t>TrickSkill_mieshenzhan</t>
+  </si>
+  <si>
+    <t>7水晶 丽娜大 神灭斩：对一个敌方单位造11/13/16点伤害</t>
   </si>
   <si>
     <t>lina_laguna_blade</t>
   </si>
   <si>
-    <t>TrickSkill_encijietuo</t>
-  </si>
-  <si>
-    <t>6水晶 幻刺大 恩赐解脱：惩处一名敌方英雄 本路所有</t>
+    <t>TrickSkill_heidong</t>
+  </si>
+  <si>
+    <t>7水晶 谜团大 黑洞：对正面3格单位造成眩晕，并造成5/7/10点魔法伤害</t>
   </si>
   <si>
     <t>enigma_black_hole</t>
   </si>
   <si>
-    <t>TrickSkill_kuangzhanshizhihou</t>
-  </si>
-  <si>
-    <t>6水晶 斧王大 狂战士之吼：斧王与敌方近邻战斗</t>
-  </si>
-  <si>
-    <t>windrunner_focusfire</t>
-  </si>
-  <si>
-    <t>TrickSkill_handongzuzhou</t>
-  </si>
-  <si>
-    <t>6水晶 冰龙大 寒冬诅咒：选择一个敌方英雄，使其与另一个敌方英雄决斗</t>
+    <t>TrickSkill_jizhonghuoli</t>
+  </si>
+  <si>
+    <t>8水晶 风行大 集中火力：选择一个敌方单位或者敌方防御塔造成3次5/6/8点纯粹伤害</t>
+  </si>
+  <si>
+    <t>windrunner_windrun</t>
+  </si>
+  <si>
+    <t>TrickSkill_zirandezhaohuan</t>
+  </si>
+  <si>
+    <t>5水晶 先知大 自然的召唤：召唤6攻6血的小树人直到上限</t>
   </si>
   <si>
     <t>furion_force_of_nature</t>
   </si>
   <si>
-    <t>TrickSkill_shouhutianshi</t>
-  </si>
-  <si>
-    <t>6水晶 全能大 守护天使：使本回合所有的友方单位获得伤害免疫</t>
+    <t>TrickSkill_youlingchuan</t>
+  </si>
+  <si>
+    <t>6水晶 船长大 幽灵船：对一个敌方英雄施放一艘船使其眩晕并造成6点伤害，路径上的所有友方英雄获得2点抗性（跨线技能）</t>
   </si>
   <si>
     <t>kunkka_ghostship</t>
   </si>
   <si>
-    <t>TrickSkill_mieshenzhan</t>
-  </si>
-  <si>
-    <t>7水晶 丽娜大 神灭斩：对一个敌方单位造11/13/16点伤害</t>
+    <t>TrickSkill_hunduan</t>
+  </si>
+  <si>
+    <t>4水晶 TB大   魂断：选择一个单位，使恐怖利刃和其交换当前生命值</t>
   </si>
   <si>
     <t>terrorblade_sunder</t>
   </si>
   <si>
-    <t>TrickSkill_heidong</t>
-  </si>
-  <si>
-    <t>7水晶 谜团大 黑洞：对正面3格单位造成眩晕，并造成5/7/10点魔法伤害</t>
+    <t>TrickSkill_huimie</t>
+  </si>
+  <si>
+    <t>7水晶 潮汐大 毁灭：本回合眩晕本路所有敌方单位，并造成2/3/4点物理伤害</t>
   </si>
   <si>
     <t>tidehunter_ravage</t>
   </si>
   <si>
-    <t>TrickSkill_jizhonghuoli</t>
-  </si>
-  <si>
-    <t>8水晶 风行大 集中火力：选择一个敌方单位或者敌方防御塔造成3次5/6/8点纯粹伤害</t>
+    <t>TrickSkill_chongjibo</t>
+  </si>
+  <si>
+    <t>6水晶 光法大 冲击波：对本路全体敌方单位造成5/7/10点魔法伤害</t>
   </si>
   <si>
     <t>keeper_of_the_light_illuminate</t>
   </si>
   <si>
-    <t>TrickSkill_zirandezhaohuan</t>
-  </si>
-  <si>
-    <t>5水晶 先知大 自然的召唤：召唤6攻6血的小树人直到上限</t>
+    <t>TrickSkill_youminghongbao</t>
+  </si>
+  <si>
+    <t>5水晶 骨法大 幽冥轰爆：对敌方近邻和防御塔造成5/7/10点伤害</t>
   </si>
   <si>
     <t>pugna_nether_blast</t>
   </si>
   <si>
-    <t>TrickSkill_youlingchuan</t>
-  </si>
-  <si>
-    <t>6水晶 船长大 幽灵船：对一个敌方英雄施放一艘船使其眩晕并造成6点伤害，路径上的所有友方英雄获得2点抗性（跨线技能）</t>
+    <t>TrickSkill_anyingchongchi</t>
+  </si>
+  <si>
+    <t>4水晶 白牛大 暗影冲刺：选择一个敌方英雄与之战斗,裂魂人进入与该英雄距离最近的友方空格（跨线技能）</t>
   </si>
   <si>
     <t>spirit_breaker_charge_of_darkness</t>
   </si>
   <si>
-    <t>TrickSkill_hunduan</t>
-  </si>
-  <si>
-    <t>4水晶 TB大   魂断：选择一个单位，使恐怖利刃和其交换当前生命值</t>
+    <t>TrickSkill_fashegouzhua</t>
+  </si>
+  <si>
+    <t>5水晶 发条大 发射钩爪：发条移动到一个友方空格，对该空格的对格敌方目标造成眩晕和6点物理伤害（跨线技能）</t>
   </si>
   <si>
     <t>rattletrap_hookshot</t>
   </si>
   <si>
-    <t>TrickSkill_huimie</t>
-  </si>
-  <si>
-    <t>7水晶 潮汐大 毁灭：本回合眩晕本路所有敌方单位，并造成2/3/4点物理伤害</t>
-  </si>
-  <si>
-    <t>beastmaster_wild_axes</t>
-  </si>
-  <si>
-    <t>TrickSkill_chongjibo</t>
-  </si>
-  <si>
-    <t>6水晶 光法大 冲击波：对本路全体敌方单位造成5/7/10点魔法伤害</t>
-  </si>
-  <si>
-    <t>tinker_rearm</t>
-  </si>
-  <si>
-    <t>TrickSkill_youminghongbao</t>
-  </si>
-  <si>
-    <t>5水晶 骨法大 幽冥轰爆：对敌方近邻和防御塔造成5/7/10点伤害</t>
-  </si>
-  <si>
-    <t>TrickSkill_anyingchongchi</t>
-  </si>
-  <si>
-    <t>4水晶 白牛大 暗影冲刺：选择一个敌方英雄与之战斗,裂魂人进入与该英雄距离最近的友方空格（跨线技能）</t>
-  </si>
-  <si>
-    <t>TrickSkill_fashegouzhua</t>
-  </si>
-  <si>
-    <t>5水晶 发条大 发射钩爪：发条移动到一个友方空格，对该空格的对格敌方目标造成眩晕和6点物理伤害（跨线技能）</t>
-  </si>
-  <si>
     <t>TrickSkill_yexingzhaohuanzhanying</t>
   </si>
   <si>
     <t>5水晶兽王大 野性呼唤战鹰：召唤一只6攻9血的战鹰（跨线技能）</t>
   </si>
   <si>
+    <t>beastmaster_call_of_the_wild_hawk</t>
+  </si>
+  <si>
     <t>TrickSkill_jixiexingjun</t>
   </si>
   <si>
     <t>7水晶 丁哥大 机械行军：对一条兵线上的所有敌方单位造成4次1/2/3点伤害(跨线技能)</t>
+  </si>
+  <si>
+    <t>tinker_march_of_the_machines</t>
   </si>
   <si>
     <t>TrickSkill_sheshoutianfu</t>
@@ -505,10 +517,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +538,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -550,82 +568,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,6 +605,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,23 +703,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,13 +719,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,19 +857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,37 +875,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,67 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,38 +909,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -910,20 +934,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="medium">
+        <color rgb="FFE3EDF5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3EDF5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE3EDF5"/>
+      </top>
       <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFE3EDF5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,30 +960,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,10 +981,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1007,6 +1011,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1015,10 +1054,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,137 +1066,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,22 +1214,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1544,7 +1590,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1697,7 +1743,7 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1783,7 +1829,7 @@
       <c r="D10" s="5">
         <v>25</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G10">
@@ -1839,7 +1885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="34.5" spans="1:8">
+    <row r="13" ht="35.25" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1852,7 +1898,7 @@
       <c r="D13" s="5">
         <v>53</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G13">
@@ -1862,7 +1908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="51.75" spans="1:8">
+    <row r="14" ht="52.5" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -1875,13 +1921,13 @@
       <c r="D14" s="5">
         <v>23</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>49</v>
       </c>
       <c r="G14">
         <v>12</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1962,12 +2008,12 @@
         <v>1</v>
       </c>
       <c r="C18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="5">
         <v>45</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>61</v>
       </c>
       <c r="G18">
@@ -1990,7 +2036,7 @@
       <c r="D19" s="5">
         <v>71</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>64</v>
       </c>
       <c r="G19">
@@ -2000,7 +2046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" ht="51.75" spans="1:8">
+    <row r="20" ht="52.5" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
@@ -2013,7 +2059,7 @@
       <c r="D20" s="5">
         <v>51</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>67</v>
       </c>
       <c r="G20">
@@ -2023,7 +2069,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" ht="34.5" spans="1:8">
+    <row r="21" ht="35.25" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
@@ -2036,17 +2082,15 @@
       <c r="D21" s="5">
         <v>38</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G21">
-        <v>19</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="G21"/>
+      <c r="H21" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" ht="51.75" spans="1:8">
+    <row r="22" ht="52.5" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
@@ -2059,7 +2103,7 @@
       <c r="D22" s="5">
         <v>34</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>73</v>
       </c>
       <c r="G22">
@@ -2069,7 +2113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" ht="34.5" spans="1:8">
+    <row r="23" ht="35.25" spans="1:8">
       <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
@@ -2079,17 +2123,17 @@
       <c r="C23" s="4">
         <v>3</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="11">
         <v>6</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" ht="34.5" spans="1:8">
+    <row r="24" ht="35.25" spans="1:8">
       <c r="A24" s="5" t="s">
         <v>78</v>
       </c>
@@ -2099,17 +2143,17 @@
       <c r="C24" s="4">
         <v>4</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="11">
         <v>68</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" ht="34.5" spans="1:8">
+    <row r="25" ht="35.25" spans="1:8">
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
@@ -2119,17 +2163,17 @@
       <c r="C25" s="4">
         <v>4</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="11">
         <v>66</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" ht="51.75" spans="1:8">
+    <row r="26" ht="52.5" spans="1:8">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -2139,17 +2183,17 @@
       <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="11">
         <v>36</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" ht="51.75" spans="1:8">
+    <row r="27" ht="52.5" spans="1:8">
       <c r="A27" s="5" t="s">
         <v>87</v>
       </c>
@@ -2159,13 +2203,13 @@
       <c r="C27" s="4">
         <v>5</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="11">
         <v>72</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2173,7 +2217,7 @@
       <c r="A28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="12">
         <v>2</v>
       </c>
       <c r="C28" s="4">
@@ -2188,7 +2232,7 @@
       <c r="G28">
         <v>21</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2196,7 +2240,7 @@
       <c r="A29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="12">
         <v>2</v>
       </c>
       <c r="C29" s="4">
@@ -2215,11 +2259,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" ht="34.5" spans="1:8">
+    <row r="30" ht="35.25" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="12">
         <v>2</v>
       </c>
       <c r="C30" s="4">
@@ -2234,15 +2278,15 @@
       <c r="G30">
         <v>23</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" ht="34.5" spans="1:8">
+    <row r="31" ht="35.25" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="12">
         <v>2</v>
       </c>
       <c r="C31" s="4">
@@ -2257,7 +2301,7 @@
       <c r="G31">
         <v>24</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2265,7 +2309,7 @@
       <c r="A32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="12">
         <v>2</v>
       </c>
       <c r="C32" s="4">
@@ -2280,15 +2324,15 @@
       <c r="G32">
         <v>25</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" ht="34.5" spans="1:8">
+    <row r="33" ht="35.25" spans="1:8">
       <c r="A33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="12">
         <v>2</v>
       </c>
       <c r="C33" s="4">
@@ -2303,15 +2347,15 @@
       <c r="G33">
         <v>26</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" ht="34.5" spans="1:8">
+    <row r="34" ht="35.25" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="12">
         <v>2</v>
       </c>
       <c r="C34" s="4">
@@ -2326,15 +2370,15 @@
       <c r="G34">
         <v>27</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" ht="35.25" spans="1:8">
+      <c r="A35" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" ht="34.5" spans="1:8">
-      <c r="A35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="10">
+      <c r="B35" s="12">
         <v>2</v>
       </c>
       <c r="C35" s="4">
@@ -2344,20 +2388,20 @@
         <v>25</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G35">
         <v>28</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" ht="35.25" spans="1:8">
+      <c r="A36" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="36" ht="34.5" spans="1:8">
-      <c r="A36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="10">
+      <c r="B36" s="12">
         <v>2</v>
       </c>
       <c r="C36" s="4">
@@ -2367,20 +2411,20 @@
         <v>33</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G36">
         <v>29</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" ht="52.5" spans="1:8">
+      <c r="A37" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" ht="51.75" spans="1:8">
-      <c r="A37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="10">
+      <c r="B37" s="12">
         <v>2</v>
       </c>
       <c r="C37" s="4">
@@ -2390,20 +2434,20 @@
         <v>21</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37">
         <v>30</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" ht="35.25" spans="1:8">
+      <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="38" ht="34.5" spans="1:8">
-      <c r="A38" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="10">
+      <c r="B38" s="12">
         <v>2</v>
       </c>
       <c r="C38" s="4">
@@ -2413,20 +2457,20 @@
         <v>53</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G38">
         <v>31</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>122</v>
+      <c r="H38" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="51.75" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="10">
+        <v>122</v>
+      </c>
+      <c r="B39" s="12">
         <v>2</v>
       </c>
       <c r="C39" s="4">
@@ -2436,20 +2480,20 @@
         <v>23</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G39">
         <v>32</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" ht="35.25" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="40" ht="34.5" spans="1:8">
-      <c r="A40" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="10">
+      <c r="B40" s="12">
         <v>2</v>
       </c>
       <c r="C40" s="4">
@@ -2459,20 +2503,20 @@
         <v>109</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G40">
         <v>33</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" ht="35.25" spans="1:8">
+      <c r="A41" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="41" ht="34.5" spans="1:8">
-      <c r="A41" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="10">
+      <c r="B41" s="12">
         <v>2</v>
       </c>
       <c r="C41" s="4">
@@ -2482,20 +2526,20 @@
         <v>29</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G41">
         <v>34</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>131</v>
+      <c r="H41" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="34.5" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="10">
+        <v>131</v>
+      </c>
+      <c r="B42" s="12">
         <v>2</v>
       </c>
       <c r="C42" s="4">
@@ -2505,20 +2549,20 @@
         <v>90</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G42">
         <v>35</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>134</v>
+      <c r="H42" s="13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="34.5" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="10">
+        <v>134</v>
+      </c>
+      <c r="B43" s="12">
         <v>2</v>
       </c>
       <c r="C43" s="4">
@@ -2528,20 +2572,20 @@
         <v>45</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G43">
         <v>36</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="51.75" spans="1:8">
       <c r="A44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="12">
         <v>2</v>
       </c>
       <c r="C44" s="4">
@@ -2557,14 +2601,14 @@
         <v>37</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="51.75" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B45" s="10">
+        <v>140</v>
+      </c>
+      <c r="B45" s="12">
         <v>2</v>
       </c>
       <c r="C45" s="4">
@@ -2574,20 +2618,20 @@
         <v>51</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G45">
         <v>38</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="34.5" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="10">
+        <v>143</v>
+      </c>
+      <c r="B46" s="12">
         <v>2</v>
       </c>
       <c r="C46" s="4">
@@ -2597,20 +2641,20 @@
         <v>38</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G46">
         <v>39</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="51.75" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="10">
+        <v>146</v>
+      </c>
+      <c r="B47" s="12">
         <v>2</v>
       </c>
       <c r="C47" s="4">
@@ -2620,18 +2664,18 @@
         <v>34</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G47">
         <v>40</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>134</v>
+      <c r="H47" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="48" ht="34.5" spans="1:8">
       <c r="A48" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2639,19 +2683,19 @@
       <c r="C48" s="4">
         <v>6</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="14">
         <v>6</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>146</v>
+      <c r="F48" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" ht="34.5" spans="1:8">
       <c r="A49" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -2659,19 +2703,19 @@
       <c r="C49" s="4">
         <v>7</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="14">
         <v>68</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>149</v>
+      <c r="F49" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" ht="34.5" spans="1:8">
       <c r="A50" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -2679,19 +2723,19 @@
       <c r="C50" s="4">
         <v>7</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="14">
         <v>66</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>152</v>
+      <c r="F50" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" ht="51.75" spans="1:8">
       <c r="A51" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -2699,19 +2743,19 @@
       <c r="C51" s="4">
         <v>6</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="14">
         <v>36</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>155</v>
+      <c r="F51" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" ht="34.5" spans="1:8">
       <c r="A52" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -2719,14 +2763,14 @@
       <c r="C52" s="4">
         <v>6</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="14">
         <v>72</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>158</v>
+      <c r="F52" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/excels/Ability.xlsx
+++ b/excels/Ability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AcardGame\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC3DF0D-2748-44E6-98C5-38796F383B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17865"/>
+    <workbookView xWindow="0" yWindow="1905" windowWidth="28800" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,9 +189,6 @@
     <t>SmallSkill_julang</t>
   </si>
   <si>
-    <t>3水晶 潮汐小  巨浪：选择一个敌方单位，移除其抗性值,造成伤害3/5/7</t>
-  </si>
-  <si>
     <t>tidehunter_gush</t>
   </si>
   <si>
@@ -508,19 +511,17 @@
   </si>
   <si>
     <t>gyrocopter_call_down</t>
+  </si>
+  <si>
+    <t>3水晶 潮汐小  巨浪：选择一个敌方单位，减少2点护甲,造成伤害3/5/7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,7 +545,7 @@
       <sz val="10.5"/>
       <color rgb="FF444444"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -560,151 +561,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,194 +594,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -948,255 +633,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1239,62 +682,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1581,19 +983,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="44.875" customWidth="1"/>
     <col min="3" max="3" width="32.375" customWidth="1"/>
@@ -1603,7 +1005,7 @@
     <col min="8" max="8" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1655,7 +1057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="34.5" spans="1:8">
+    <row r="3" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1678,7 +1080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="34.5" spans="1:8">
+    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +1103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="34.5" spans="1:8">
+    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1724,7 +1126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="51.75" spans="1:8">
+    <row r="6" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1747,7 +1149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="34.5" spans="1:8">
+    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1770,7 +1172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="34.5" spans="1:8">
+    <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -1793,7 +1195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="51.75" spans="1:8">
+    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1816,7 +1218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="34.5" spans="1:8">
+    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1839,7 +1241,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="34.5" spans="1:8">
+    <row r="11" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1862,7 +1264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="34.5" spans="1:8">
+    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1885,7 +1287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="35.25" spans="1:8">
+    <row r="13" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1908,7 +1310,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="52.5" spans="1:8">
+    <row r="14" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -1931,7 +1333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="34.5" spans="1:8">
+    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1954,7 +1356,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" ht="34.5" spans="1:8">
+    <row r="16" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1967,19 +1369,19 @@
       <c r="D16" s="5">
         <v>29</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>55</v>
+      <c r="F16" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="G16">
         <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="17" ht="51.75" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1991,18 +1393,18 @@
         <v>90</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17">
         <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="18" ht="51.75" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2014,18 +1416,18 @@
         <v>45</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18">
         <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="19" ht="34.5" spans="1:8">
-      <c r="A19" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2037,18 +1439,18 @@
         <v>71</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19">
         <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="20" ht="52.5" spans="1:8">
-      <c r="A20" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2060,18 +1462,18 @@
         <v>51</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20">
         <v>18</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="21" ht="35.25" spans="1:8">
-      <c r="A21" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2083,16 +1485,15 @@
         <v>38</v>
       </c>
       <c r="F21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G21"/>
-      <c r="H21" s="10" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="22" ht="52.5" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2104,18 +1505,18 @@
         <v>34</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="23" ht="35.25" spans="1:8">
-      <c r="A23" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2127,15 +1528,15 @@
         <v>6</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="10" t="s">
+    </row>
+    <row r="24" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="24" ht="35.25" spans="1:8">
-      <c r="A24" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2147,15 +1548,15 @@
         <v>68</v>
       </c>
       <c r="F24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H24" s="10" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="25" ht="35.25" spans="1:8">
-      <c r="A25" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2167,15 +1568,15 @@
         <v>66</v>
       </c>
       <c r="F25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="10" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="26" ht="52.5" spans="1:8">
-      <c r="A26" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2187,15 +1588,15 @@
         <v>36</v>
       </c>
       <c r="F26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="10" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="27" ht="52.5" spans="1:8">
-      <c r="A27" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2207,15 +1608,15 @@
         <v>72</v>
       </c>
       <c r="F27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="10" t="s">
+    </row>
+    <row r="28" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="28" ht="34.5" spans="1:8">
-      <c r="A28" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="B28" s="12">
         <v>2</v>
@@ -2227,18 +1628,18 @@
         <v>22</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28">
         <v>21</v>
       </c>
       <c r="H28" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="29" ht="34.5" spans="1:8">
-      <c r="A29" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="B29" s="12">
         <v>2</v>
@@ -2250,18 +1651,18 @@
         <v>104</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29">
         <v>22</v>
       </c>
       <c r="H29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="30" ht="35.25" spans="1:8">
-      <c r="A30" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="B30" s="12">
         <v>2</v>
@@ -2273,18 +1674,18 @@
         <v>35</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G30">
         <v>23</v>
       </c>
       <c r="H30" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="31" ht="35.25" spans="1:8">
-      <c r="A31" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="B31" s="12">
         <v>2</v>
@@ -2296,18 +1697,18 @@
         <v>44</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31">
         <v>24</v>
       </c>
       <c r="H31" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="32" ht="34.5" spans="1:8">
-      <c r="A32" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="B32" s="12">
         <v>2</v>
@@ -2319,18 +1720,18 @@
         <v>2</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G32">
         <v>25</v>
       </c>
       <c r="H32" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="33" ht="35.25" spans="1:8">
-      <c r="A33" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="B33" s="12">
         <v>2</v>
@@ -2342,18 +1743,18 @@
         <v>112</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G33">
         <v>26</v>
       </c>
       <c r="H33" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="34" ht="35.25" spans="1:8">
-      <c r="A34" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="B34" s="12">
         <v>2</v>
@@ -2365,18 +1766,18 @@
         <v>57</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G34">
         <v>27</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" ht="35.25" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="12">
         <v>2</v>
@@ -2388,18 +1789,18 @@
         <v>25</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G35">
         <v>28</v>
       </c>
       <c r="H35" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="36" ht="35.25" spans="1:8">
-      <c r="A36" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="B36" s="12">
         <v>2</v>
@@ -2411,18 +1812,18 @@
         <v>33</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G36">
         <v>29</v>
       </c>
       <c r="H36" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="37" ht="52.5" spans="1:8">
-      <c r="A37" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="B37" s="12">
         <v>2</v>
@@ -2434,18 +1835,18 @@
         <v>21</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37">
         <v>30</v>
       </c>
       <c r="H37" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="38" ht="35.25" spans="1:8">
-      <c r="A38" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="B38" s="12">
         <v>2</v>
@@ -2457,18 +1858,18 @@
         <v>53</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G38">
         <v>31</v>
       </c>
       <c r="H38" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="39" ht="51.75" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="B39" s="12">
         <v>2</v>
@@ -2480,18 +1881,18 @@
         <v>23</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G39">
         <v>32</v>
       </c>
       <c r="H39" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="40" ht="35.25" spans="1:8">
-      <c r="A40" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="B40" s="12">
         <v>2</v>
@@ -2503,18 +1904,18 @@
         <v>109</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40">
         <v>33</v>
       </c>
       <c r="H40" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="41" ht="35.25" spans="1:8">
-      <c r="A41" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="B41" s="12">
         <v>2</v>
@@ -2526,18 +1927,18 @@
         <v>29</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G41">
         <v>34</v>
       </c>
       <c r="H41" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="42" ht="34.5" spans="1:8">
-      <c r="A42" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="B42" s="12">
         <v>2</v>
@@ -2549,18 +1950,18 @@
         <v>90</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G42">
         <v>35</v>
       </c>
       <c r="H42" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="43" ht="34.5" spans="1:8">
-      <c r="A43" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="B43" s="12">
         <v>2</v>
@@ -2572,18 +1973,18 @@
         <v>45</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G43">
         <v>36</v>
       </c>
       <c r="H43" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="44" ht="51.75" spans="1:8">
-      <c r="A44" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="B44" s="12">
         <v>2</v>
@@ -2595,18 +1996,18 @@
         <v>71</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G44">
         <v>37</v>
       </c>
       <c r="H44" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="45" ht="51.75" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="B45" s="12">
         <v>2</v>
@@ -2618,18 +2019,18 @@
         <v>51</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G45">
         <v>38</v>
       </c>
       <c r="H45" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="46" ht="34.5" spans="1:8">
-      <c r="A46" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="B46" s="12">
         <v>2</v>
@@ -2641,18 +2042,18 @@
         <v>38</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G46">
         <v>39</v>
       </c>
       <c r="H46" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="47" ht="51.75" spans="1:8">
-      <c r="A47" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="B47" s="12">
         <v>2</v>
@@ -2664,18 +2065,18 @@
         <v>34</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G47">
         <v>40</v>
       </c>
       <c r="H47" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="48" ht="34.5" spans="1:8">
-      <c r="A48" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2687,15 +2088,15 @@
         <v>6</v>
       </c>
       <c r="F48" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H48" s="5" t="s">
+    </row>
+    <row r="49" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="49" ht="34.5" spans="1:8">
-      <c r="A49" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -2707,15 +2108,15 @@
         <v>68</v>
       </c>
       <c r="F49" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H49" s="5" t="s">
+    </row>
+    <row r="50" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="50" ht="34.5" spans="1:8">
-      <c r="A50" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -2727,15 +2128,15 @@
         <v>66</v>
       </c>
       <c r="F50" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H50" s="5" t="s">
+    </row>
+    <row r="51" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="51" ht="51.75" spans="1:8">
-      <c r="A51" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -2747,15 +2148,15 @@
         <v>36</v>
       </c>
       <c r="F51" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H51" s="5" t="s">
+    </row>
+    <row r="52" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="52" ht="34.5" spans="1:8">
-      <c r="A52" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -2767,49 +2168,43 @@
         <v>72</v>
       </c>
       <c r="F52" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H52" s="5" t="s">
-        <v>163</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>